--- a/plantillas/Resultados_Opi_Mesa.xlsx
+++ b/plantillas/Resultados_Opi_Mesa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE3E0D-4CE3-4667-93E2-0EF8D899C24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAEDF5-C8BB-420D-BC67-5CF26E783E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,29 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +220,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +545,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -588,60 +623,84 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="8" t="s">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
